--- a/target/test-classes/testData.xlsx
+++ b/target/test-classes/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79d9b86c8bfadb4a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mansi\IdeaProjects\KSRTC_TEST\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA02A9C9-BF12-4BAA-AD90-1A2DE7707B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7597B083-091D-4513-B6A9-88B8AAD897A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5ED03C1D-FE17-4505-83E1-B57F3052F6C1}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{5ED03C1D-FE17-4505-83E1-B57F3052F6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -46,10 +46,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
     <t>testp</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>ttt@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -414,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1724B2A8-4C9B-4288-BA9C-428A1F66B9F6}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,47 +441,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8871672123</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>9912345432</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{54549F0D-1838-4F4E-AD60-665941A9C0B7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B1C6AF-CC5F-419A-8A17-A43A909C3799}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8871672123</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B6740455-1D1A-4439-80BA-73586B8E57C9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>